--- a/reading/shopping list.xlsx
+++ b/reading/shopping list.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>SSR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>link</t>
   </si>
@@ -78,7 +75,43 @@
     <t>https://www.ebay.co.uk/p/1655640587?iid=171662412356</t>
   </si>
   <si>
-    <t>Thermal cutout and flow sensor built in</t>
+    <t>3kW, 230V (13A) thermal cutout and flow sensor built in</t>
+  </si>
+  <si>
+    <t>https://www.ebay.co.uk/itm/ESR-ENCLOSURE-JUNCTION-BOX-ADAPTABLE-PVC-PLASTIC-IP56-WATERPROOF-460x380x120mm/253455138103?_trkparms=aid%3D1110009%26algo%3DSPLICE.COMPLISTINGS%26ao%3D1%26asc%3D20200220094952%26meid%3D8c5612965d3d41aea220b37d06f77ab2%26pid%3D100008%26rk%3D6%26rkt%3D12%26sd%3D392072887235%26itm%3D253455138103%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3Ddefault&amp;_trksid=p2047675.c100008.m2219</t>
+  </si>
+  <si>
+    <t>IP56, 460x380mm</t>
+  </si>
+  <si>
+    <t>16A 230V 12V switch</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>DIN jumpers</t>
+  </si>
+  <si>
+    <t>SSR + heat sink</t>
+  </si>
+  <si>
+    <t>Cable glands</t>
+  </si>
+  <si>
+    <t>Mains isolation switch</t>
+  </si>
+  <si>
+    <t>12V supply</t>
+  </si>
+  <si>
+    <t>12V plugs</t>
   </si>
 </sst>
 </file>
@@ -407,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,32 +451,35 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
         <v>16.36</v>
@@ -452,128 +488,221 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>C2*D2</f>
-        <v>16.36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E32" si="0">C3*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <f t="shared" ref="E4:E33" si="0">C4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>83.28</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>83.28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>64.989999999999995</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.99</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>13.27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13.27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>8.25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>6.98</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>9.9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>3.28</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -675,19 +804,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <f>SUM(E2:E32)</f>
-        <v>81.349999999999994</v>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E2:E33)</f>
+        <v>215.63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://uk.rs-online.com/web/p/solid-state-relays/1025546/?cm_mmc=UK-PLA-DS3A-_-google-_-CSS_UK_EN_Relays_Whoop-_-Solid+State+Relays_Whoop-_-1025546&amp;matchtype=&amp;aud-827186183926:pla-337008270374&amp;gclid=CjwKCAiAoOz-BRBdEiwAyuvA63FTAo5UkZ9uGYq0maWZ1X6dRBnFHpt3c5_Dcadq204xyile9eVdYxoCsVsQAvD_BwE&amp;gclsrc=aw.ds"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B3"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.ebay.co.uk/itm/ESR-ENCLOSURE-JUNCTION-BOX-ADAPTABLE-PVC-PLASTIC-IP56-WATERPROOF-460x380x120mm/253455138103?_trkparms=aid%3D1110009%26algo%3DSPLICE.COMPLISTINGS%26ao%3D1%26asc%3D20200220094952%26meid%3D8c5612965d3d41aea220b37d06f77ab2%26pid%3D100008%26rk%3D6%26rkt%3D12%26sd%3D392072887235%26itm%3D253455138103%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3Ddefault&amp;_trksid=p2047675.c100008.m2219"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
